--- a/Youtube_trending.xlsx
+++ b/Youtube_trending.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Area\Projects\Youtube trending\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,94 +30,70 @@
     <t>Link</t>
   </si>
   <si>
-    <t>FOOD ART CHALLENGE &amp; How To Make the Best Avengers Pokemon Detective Pikachu Pancake Art</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QyB5ofy9RaY</t>
-  </si>
-  <si>
-    <t>How Julian Newman Prepared To Play LAMELO BALL! Jaden Newman Has A CRUSH On Melo!?</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=unwFh-rj068</t>
-  </si>
-  <si>
-    <t>Destroying Giant Stress Balls (Satisfying)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U6bpbdnAWjI</t>
-  </si>
-  <si>
-    <t>Foreign Mothers | Anwar Jibawi &amp; Rudy Mancuso</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xe-D52asIBg</t>
-  </si>
-  <si>
-    <t>Final Fantasy XV's Warp Strike | Mix and Jam</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QAFL1NXnqog</t>
-  </si>
-  <si>
-    <t>Overwatch's Dragonstrike | Mix and Jam</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tYq58H6-Yqc</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption's Dead Eye | Mix and Jam</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jPnMVeWnZLc</t>
-  </si>
-  <si>
-    <t>God of War's Axe Throw | Mix and Jam</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=M-3P59GtRW4</t>
-  </si>
-  <si>
-    <t>The Try Guys Try 13 Future Technologies At Google</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P6el3-VHQv8</t>
-  </si>
-  <si>
-    <t>Soltera Remix - Lunay X Daddy Yankee X Bad Bunny ( Video Oficial )</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8zQTfGbyY5I</t>
-  </si>
-  <si>
-    <t>We Try On Wedding Dresses • Ladylike</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=T255ZK-uWAw</t>
-  </si>
-  <si>
-    <t>10 TV And Movie Mistakes You Won't Believe You Missed | Find The Flaws</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fDn6YBFAOgM</t>
-  </si>
-  <si>
-    <t>Sansa vs. Daenerys: Sophie Turner Blames Emilia Clarke for Game of Thrones Coffee Cup-gate</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aG1nWuYFkTM</t>
-  </si>
-  <si>
-    <t>WORLD'S MOST FAMOUS MAGIC TRICKS REVEALED!</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Hte3QQbYigE</t>
-  </si>
-  <si>
-    <t>The Curious Death of Vincent Van Gogh</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Hrsdntds9kM</t>
+    <t>RATHAM (2019) New Released Full Hindi Dubbed Movie | New Movies 2019 | New South Movie 2019</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkO220GZI8Y</t>
+  </si>
+  <si>
+    <t>BB Ki Vines- | The Brighter Side |</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RcOOMlJHRH0</t>
+  </si>
+  <si>
+    <t>THE ROADTRIP - | ELVISH YADAV |</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kTQ47fSDKY8</t>
+  </si>
+  <si>
+    <t>Cows and Momos of India - Stand-up Comedy by Varun Grover</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SDNfxog3qxM</t>
+  </si>
+  <si>
+    <t>दी कपिल शर्मा शो | एपिसोड 39 | प्यार का लेन देन कपिल के साथ  | सीज़न 2 | 11 मई, 2019</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4ZBJgYfEevI</t>
+  </si>
+  <si>
+    <t>Trending: Rahul Gandhi की NDTV के Ravish Kumar से खास बातचीत | Watch Full Interview</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B_bC7rN5Pm4</t>
+  </si>
+  <si>
+    <t>Buttler Hits Incredible 100 Off 50 Balls | England v Pakistan 2nd ODI 2019 - Highlights</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZfH3nBocQHg</t>
+  </si>
+  <si>
+    <t>छोरी Tere Pyar Mein | Sukki dc | We Are One</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=neQFB4kkO4A</t>
+  </si>
+  <si>
+    <t>High Rated Gabru - Gal Goriye | Guru Randhawa | Cute Love Story | Hindi Song 2019|Ft Manojit &amp; Misti</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OSwL-F-bDYg</t>
+  </si>
+  <si>
+    <t>TIME PASS - 3  New Haryanvi Song 2019 | Manjeet Panchal, Anjali Raghav, Gourav Mudgil | Kala Niketan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J22hBTkPrA8</t>
+  </si>
+  <si>
+    <t>भोजपुरी सुपरस्टार आम्रपाली के इस इंटरव्यू को नहीं सुना तो फिर क्या सुना ! | UP Tak</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rO-U7Wzakko</t>
   </si>
   <si>
     <t>Ed Sheeran &amp; Justin Bieber - I Don't Care [Official Lyric Video]</t>
@@ -121,215 +102,239 @@
     <t>https://www.youtube.com/watch?v=CCSGelSCPGE</t>
   </si>
   <si>
+    <t>Avengers Endgame Premiere With Ashish Chanchlani</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NbXhlDavq0Q</t>
+  </si>
+  <si>
+    <t>Her Mareez Ki Kahani | RealSHIT</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MfaBJQix9Z0</t>
+  </si>
+  <si>
+    <t>SLAP Challenge | Rimorav Vlogs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=34dmAZhvsaU</t>
+  </si>
+  <si>
+    <t>सुनिए सरकार- Division का देवता</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yqV-_oAUQts</t>
+  </si>
+  <si>
+    <t>Paheliyan and Detective Riddles To Test Your Logic | Riddles in Hindi | Mind Your Logic</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z4CPcqJZbWc</t>
+  </si>
+  <si>
+    <t>गिरफ्त में आए ''अलवर कांड'' के दरिंदे...</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=K0T9hLZH-QQ</t>
+  </si>
+  <si>
+    <t>Mumbai Indians vs Chennai Super Kings | IPL Horror Story In Hindi | Khooni Monday E32 🔥🔥🔥</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eGiVyYgTXlo</t>
+  </si>
+  <si>
+    <t>How Indians Put DPs | Profile Pictures</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZFKAufbBOXs</t>
+  </si>
+  <si>
+    <t>IPL 2019: Watson, du Plessis star as CSK beat DC in Qualifier 2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yqAX4YJKANU</t>
+  </si>
+  <si>
+    <t>मोदी का इम्तिहान, क्या करेगा मुसलमान? | 10तक</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yexuG7e0p2I</t>
+  </si>
+  <si>
+    <t>DIY School Supplies! 10 Fun School Hacks and School Supply Ideas!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aO2NfA8eZ5U</t>
+  </si>
+  <si>
+    <t>Dheeme Dheeme - Tony Kakkar ft. Neha Sharma | Official Music Video</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9mWdw-09dso</t>
+  </si>
+  <si>
+    <t>How well does Ajay Devgn know our generation? | #SawaalSaturday | De De Pyaar De | MostlySane</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SlTVS5W7PqI</t>
+  </si>
+  <si>
+    <t>I Bought A Rolls Royce Using Only $1 Bills ...</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AUAPDk39MZo</t>
+  </si>
+  <si>
+    <t>RANI NO.786 | Rani Chaterjee, Vijay Varma, Lallan Singh | SuperHit Bhojpuri Movie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7hFweMhwxSE</t>
+  </si>
+  <si>
+    <t>Normal Mom VS. My Mom | Mother's Day Special | Rickshawali</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fwhDrIs2Ko8</t>
+  </si>
+  <si>
+    <t>Next Dose #426 | 12 May 2019 Current Affairs | Daily Current Affairs | Current Affairs In Hindi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MZIVX8hqRJg</t>
+  </si>
+  <si>
+    <t>TIME MAGAZINE ने PM नरेंद्र मोदी को बताया  ‘India’s Divider In Chief’ All You Need to Know About it</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6_fb7-giK2E</t>
+  </si>
+  <si>
+    <t>दुष्यंत चौटाला अपनी पत्नी मेघना और माता नैना सिंह के साथ पहुंचे वोट डालने, देखें वीडियो</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nbDzCGdKtbU</t>
+  </si>
+  <si>
+    <t>ये खतरनाक सांप DINOSAURS को भी कच्चा चबा जाते थे (Snakes That Killed The Dinosaurs)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QucdYOPuBwk</t>
+  </si>
+  <si>
+    <t>Episode 3 | Mohammad Kaif | Breakfast with Champions Season 6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_Jz5bfMzbuY</t>
+  </si>
+  <si>
+    <t>MAHARAJA CHOCOLATE LASSI CHALLENGE | Food Eating Challenge | Eating Competition | Food Challenge</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HC_ipc89xcA</t>
+  </si>
+  <si>
+    <t>FilterCopy | If Your Mom Disappeared (Mother's Day Special) | Ft. Rohan Khurana</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YRVP4x21RxQ</t>
+  </si>
+  <si>
     <t>IT CHAPTER TWO - Official Teaser Trailer [HD]</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=zqUopiAYdRg</t>
   </si>
   <si>
-    <t>How Strong Is A Duct Tape Ladder?</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cRh8ImHp5fY</t>
-  </si>
-  <si>
-    <t>WARRIORS vs ROCKETS | Stephen Curry Drops 33 Points in the 2nd Half | Game 6</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yOAyeJbjmS4</t>
-  </si>
-  <si>
-    <t>Why Are 96,000,000 Black Balls on This Reservoir?</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uxPdPpi5W4o</t>
-  </si>
-  <si>
-    <t>The reason I don't talk crazy online.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nECXp-05jCo</t>
-  </si>
-  <si>
-    <t>U.S. Civil War - Surprising Soldiers - Extra History</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xTQ0qdFhGkQ</t>
-  </si>
-  <si>
-    <t>6 Strange Ice Cream Scoops Put to the Test!</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i3Cq69Kxoek</t>
-  </si>
-  <si>
-    <t>THOR'S HAMMER Vs. DOUBLE BULLETPROOF GLASS from 45m!</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=50MqdUU9S8s</t>
-  </si>
-  <si>
-    <t>Dwight Schrute Vs The World  - The Office US</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=548cq_NOMPs</t>
-  </si>
-  <si>
-    <t>Slippery Tag Challenge!!</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5v7Fn18MOtU</t>
-  </si>
-  <si>
-    <t>Behind Lady Gaga's Legendary Met Gala Looks | Vogue</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VBrBTFaM-64</t>
-  </si>
-  <si>
-    <t>Ciara - Beauty Marks [Official Video]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y6cubzMUcsI</t>
-  </si>
-  <si>
-    <t>Kourtney Kardashian Reveals Kim's Baby Bombshell to Kris Jenner</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h9h2zfyrkH8</t>
-  </si>
-  <si>
-    <t>My EX &amp; I Let The Person In Front Of Us Decide What We Eat For 24 Hours</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4gn6np-kNCA</t>
-  </si>
-  <si>
-    <t>Tom Clancy’s Ghost Recon Breakpoint: Official Announce Trailer | Ubisoft [NA]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BLWt9MQLVgU</t>
-  </si>
-  <si>
-    <t>ZAYN, Zhavia Ward - A Whole New World (End Title) (From "Aladdin"/Official Video)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rg_zwK_sSEY</t>
-  </si>
-  <si>
-    <t>Spider-Man Cast on Spoilers &amp; Avengers: Endgame</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Qk22D_osjQo</t>
-  </si>
-  <si>
-    <t>Our Baby's Bathroom Reveal! | OMG We're Having A Baby</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZPBvrQ4yyOg</t>
-  </si>
-  <si>
-    <t>Quando Rondo - Imperfect Flower (Official Video)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=o2D442OGeaQ</t>
-  </si>
-  <si>
-    <t>ASMR | Slow &amp; Calm Triggers for Sleep</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HQMkxmtPZhg</t>
-  </si>
-  <si>
-    <t>Ultimate Smelling Bee Challenge</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6myJhqHNNss</t>
-  </si>
-  <si>
-    <t>"YOU CAN'T GIVE MY WIFE A NICKNAME"</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4Bo5G45EC3M</t>
-  </si>
-  <si>
-    <t>Pastry Chef Attempts to Make Gourmet Almond Joys | Gourmet Makes | Bon Appétit</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BSWsCQ5bGvo</t>
-  </si>
-  <si>
-    <t>Spell the Word, Win the Car - Spelling Bee Challenge</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fFZsQUKorjs</t>
-  </si>
-  <si>
-    <t>The LeBron-AD Trade Deadline Madness 😲 | Game Of Zones S6E5</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vOx2XgmR8Uk</t>
-  </si>
-  <si>
-    <t>Playing Slang-Man (GAME)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9vlP28MW60</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay Cooks Breakfast Tacos with Aarón Sanchez | Scrambled</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fe-tkf4cqFU</t>
-  </si>
-  <si>
-    <t>Watchmen | Official Tease | HBO</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zymgtV99Rko</t>
-  </si>
-  <si>
-    <t>Marvel Studios’ Avengers: Endgame | “Hulk Out” Exclusive Clip</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9tKr3m6r9NI</t>
-  </si>
-  <si>
-    <t>The Lamborghini Murcielago Roadster Is the Last Old-School Lambo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZoEHGjT7gc4</t>
-  </si>
-  <si>
-    <t>Luke Combs - Beer Never Broke My Heart</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7Lb9dq-JZFI</t>
-  </si>
-  <si>
-    <t>Jonas Brothers - Chasing Happiness (Official Trailer)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wnqMfS26mRU</t>
-  </si>
-  <si>
-    <t>Game 5 proved Kevin Durant is a 'luxury not a necessity' for Warriors — Broussard | NBA | UNDISPUTED</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GSg5NI968HQ</t>
-  </si>
-  <si>
-    <t>Chelsea 1-1 Eintracht Frankfurt (2-2 agg.): Europa League Recap with Highlights, Goals, Best Moments</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=j8KrMHP4Lnc</t>
+    <t>Pencilmate and The BIG, Bad Wolf!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LbspvY8Kf6o</t>
+  </si>
+  <si>
+    <t>TRAIN RIDE WITHOUT PERMISSION !!!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KjpXUmRQ5OY</t>
+  </si>
+  <si>
+    <t>23 YUMMY AND SIMPLE COOKING HACKS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qTMWCbdRWL4</t>
+  </si>
+  <si>
+    <t>Reality of Rajiv Gandhi | Ep.4 Elections with Dhruv Rathee on NDTV</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8w79mgdfxcQ</t>
+  </si>
+  <si>
+    <t>Kumkum Bhagya | Ep 13510 | May 10, 2019 | Preview | Zee TV</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AQLmtYbl5IQ</t>
+  </si>
+  <si>
+    <t>Failed In My Engineering Exam | College Drop Kardu ?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Epx09PCBcD8</t>
+  </si>
+  <si>
+    <t>SUPPLY | Karan Aujla | Gurjas Sidhu| Deep Jandu | Latest Songs | ST Studio | Ditto Music</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TbYwh4oKZjU</t>
+  </si>
+  <si>
+    <t>क्या हाथी साईकल को पंचर कर देगा ? || Nirahua V/s Akhilesh Yadav || Azamgarh</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3umR0DsAxIo</t>
+  </si>
+  <si>
+    <t>Baal Veer - बालवीर - Episode 669 - Meher Vs Montu</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pbvCEqnoau8</t>
+  </si>
+  <si>
+    <t>Pehli Dafa | Satyajeet Jena | Official Video</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LePk8rw6PKw</t>
+  </si>
+  <si>
+    <t>Realme X &amp; Redmi X - The "X" Game of Phones - All We Know So Far🔥🔥🔥</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S8Ri0HbYd74</t>
+  </si>
+  <si>
+    <t>MOTHER'S DAY HINDI MORAL STORY | MIKKU AUR MUMMY | #Funny #Bloopers || MOHAK MEET || SWATI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JI8Fz0vioiA</t>
+  </si>
+  <si>
+    <t>EXCLUSIVE: Rahul Gandhi Speaks To NDTV’s Ravish Kumar | Watch Full Interview</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tRwKl_QrQQI</t>
+  </si>
+  <si>
+    <t>Savage Moms Part 2 Ft  Lilly Singh | Superwoman | Jordindian</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6kKDlXXs7ak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +384,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,9 +470,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,6 +505,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -666,14 +681,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -695,7 +717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -706,7 +728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -717,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -728,7 +750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -739,7 +761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -750,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -761,7 +783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -772,7 +794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -783,7 +805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -794,7 +816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -805,7 +827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -816,7 +838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -827,7 +849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -838,7 +860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -849,7 +871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -860,7 +882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -871,7 +893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -882,7 +904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -893,7 +915,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -904,7 +926,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -915,7 +937,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -926,7 +948,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -937,7 +959,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -948,7 +970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -959,7 +981,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -970,7 +992,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -981,7 +1003,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -992,7 +1014,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1003,7 +1025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1014,7 +1036,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1025,7 +1047,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1036,7 +1058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1047,7 +1069,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1058,7 +1080,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1069,7 +1091,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1080,7 +1102,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1091,7 +1113,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1102,7 +1124,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1113,7 +1135,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1124,7 +1146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1135,7 +1157,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1146,7 +1168,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1157,7 +1179,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1168,7 +1190,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1179,7 +1201,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1190,7 +1212,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1201,7 +1223,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1212,7 +1234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1223,7 +1245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
